--- a/natmiOut/OldD2/LR-pairs_lrc2p/Tnc-Ptprz1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Tnc-Ptprz1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,247 +528,1115 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.3598992923251</v>
+        <v>11.878645</v>
       </c>
       <c r="H2">
-        <v>11.3598992923251</v>
+        <v>23.75729</v>
       </c>
       <c r="I2">
-        <v>0.07484975927528713</v>
+        <v>0.0710367696905764</v>
       </c>
       <c r="J2">
-        <v>0.07484975927528713</v>
+        <v>0.05446630490984557</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>5.4690541859018</v>
+        <v>0.0191995</v>
       </c>
       <c r="N2">
-        <v>5.4690541859018</v>
+        <v>0.038399</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.002780311579676609</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.002767389187860387</v>
       </c>
       <c r="Q2">
-        <v>62.12790477611347</v>
+        <v>0.2280640446775</v>
       </c>
       <c r="R2">
-        <v>62.12790477611347</v>
+        <v>0.9122561787100001</v>
       </c>
       <c r="S2">
-        <v>0.07484975927528713</v>
+        <v>0.00019750435335353</v>
       </c>
       <c r="T2">
-        <v>0.07484975927528713</v>
+        <v>0.0001507294633102137</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>83.21132789367719</v>
+        <v>11.878645</v>
       </c>
       <c r="H3">
-        <v>83.21132789367719</v>
+        <v>23.75729</v>
       </c>
       <c r="I3">
-        <v>0.5482749187773768</v>
+        <v>0.0710367696905764</v>
       </c>
       <c r="J3">
-        <v>0.5482749187773768</v>
+        <v>0.05446630490984557</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>5.4690541859018</v>
+        <v>0.06449100000000001</v>
       </c>
       <c r="N3">
-        <v>5.4690541859018</v>
+        <v>0.193473</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.009339049146327988</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.01394346436998132</v>
       </c>
       <c r="Q3">
-        <v>455.0872611313624</v>
+        <v>0.7660656946950001</v>
       </c>
       <c r="R3">
-        <v>455.0872611313624</v>
+        <v>4.596394168170001</v>
       </c>
       <c r="S3">
-        <v>0.5482749187773768</v>
+        <v>0.0006634158833366755</v>
       </c>
       <c r="T3">
-        <v>0.5482749187773768</v>
+        <v>0.0007594489818749702</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.09032219525073</v>
+        <v>11.878645</v>
       </c>
       <c r="H4">
-        <v>7.09032219525073</v>
+        <v>23.75729</v>
       </c>
       <c r="I4">
-        <v>0.04671774774071251</v>
+        <v>0.0710367696905764</v>
       </c>
       <c r="J4">
-        <v>0.04671774774071251</v>
+        <v>0.05446630490984557</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.4690541859018</v>
+        <v>6.821830500000001</v>
       </c>
       <c r="N4">
-        <v>5.4690541859018</v>
+        <v>13.643661</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.9878806392739954</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.9832891464421584</v>
       </c>
       <c r="Q4">
-        <v>38.77735628132844</v>
+        <v>81.03410275967251</v>
       </c>
       <c r="R4">
-        <v>38.77735628132844</v>
+        <v>324.13641103869</v>
       </c>
       <c r="S4">
-        <v>0.04671774774071251</v>
+        <v>0.07017584945388619</v>
       </c>
       <c r="T4">
-        <v>0.04671774774071251</v>
+        <v>0.05355612646466039</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>93.03757333333333</v>
+      </c>
+      <c r="H5">
+        <v>279.11272</v>
+      </c>
+      <c r="I5">
+        <v>0.5563840547006929</v>
+      </c>
+      <c r="J5">
+        <v>0.6398978381682568</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.5</v>
+      </c>
+      <c r="M5">
+        <v>0.0191995</v>
+      </c>
+      <c r="N5">
+        <v>0.038399</v>
+      </c>
+      <c r="O5">
+        <v>0.002780311579676609</v>
+      </c>
+      <c r="P5">
+        <v>0.002767389187860387</v>
+      </c>
+      <c r="Q5">
+        <v>1.786274889213333</v>
+      </c>
+      <c r="R5">
+        <v>10.71764933528</v>
+      </c>
+      <c r="S5">
+        <v>0.00154692103003176</v>
+      </c>
+      <c r="T5">
+        <v>0.00177084635868207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>93.03757333333333</v>
+      </c>
+      <c r="H6">
+        <v>279.11272</v>
+      </c>
+      <c r="I6">
+        <v>0.5563840547006929</v>
+      </c>
+      <c r="J6">
+        <v>0.6398978381682568</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.06449100000000001</v>
+      </c>
+      <c r="N6">
+        <v>0.193473</v>
+      </c>
+      <c r="O6">
+        <v>0.009339049146327988</v>
+      </c>
+      <c r="P6">
+        <v>0.01394346436998132</v>
+      </c>
+      <c r="Q6">
+        <v>6.000086141840001</v>
+      </c>
+      <c r="R6">
+        <v>54.00077527656</v>
+      </c>
+      <c r="S6">
+        <v>0.00519609803108301</v>
+      </c>
+      <c r="T6">
+        <v>0.008922392706927162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>93.03757333333333</v>
+      </c>
+      <c r="H7">
+        <v>279.11272</v>
+      </c>
+      <c r="I7">
+        <v>0.5563840547006929</v>
+      </c>
+      <c r="J7">
+        <v>0.6398978381682568</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>6.821830500000001</v>
+      </c>
+      <c r="N7">
+        <v>13.643661</v>
+      </c>
+      <c r="O7">
+        <v>0.9878806392739954</v>
+      </c>
+      <c r="P7">
+        <v>0.9832891464421584</v>
+      </c>
+      <c r="Q7">
+        <v>634.68655541132</v>
+      </c>
+      <c r="R7">
+        <v>3808.11933246792</v>
+      </c>
+      <c r="S7">
+        <v>0.5496410356395781</v>
+      </c>
+      <c r="T7">
+        <v>0.6292045991026477</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.02358366666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.07075100000000001</v>
+      </c>
+      <c r="I8">
+        <v>0.0001410352357073828</v>
+      </c>
+      <c r="J8">
+        <v>0.0001622047606724708</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.5</v>
+      </c>
+      <c r="M8">
+        <v>0.0191995</v>
+      </c>
+      <c r="N8">
+        <v>0.038399</v>
+      </c>
+      <c r="O8">
+        <v>0.002780311579676609</v>
+      </c>
+      <c r="P8">
+        <v>0.002767389187860387</v>
+      </c>
+      <c r="Q8">
+        <v>0.0004527946081666667</v>
+      </c>
+      <c r="R8">
+        <v>0.002716767649000001</v>
+      </c>
+      <c r="S8">
+        <v>3.921218989796563E-07</v>
+      </c>
+      <c r="T8">
+        <v>4.488837009044775E-07</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.02358366666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.07075100000000001</v>
+      </c>
+      <c r="I9">
+        <v>0.0001410352357073828</v>
+      </c>
+      <c r="J9">
+        <v>0.0001622047606724708</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.06449100000000001</v>
+      </c>
+      <c r="N9">
+        <v>0.193473</v>
+      </c>
+      <c r="O9">
+        <v>0.009339049146327988</v>
+      </c>
+      <c r="P9">
+        <v>0.01394346436998132</v>
+      </c>
+      <c r="Q9">
+        <v>0.001520934247</v>
+      </c>
+      <c r="R9">
+        <v>0.013688408223</v>
+      </c>
+      <c r="S9">
+        <v>1.3171349976352E-06</v>
+      </c>
+      <c r="T9">
+        <v>2.261696301077944E-06</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.02358366666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.07075100000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.0001410352357073828</v>
+      </c>
+      <c r="J10">
+        <v>0.0001622047606724708</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>6.821830500000001</v>
+      </c>
+      <c r="N10">
+        <v>13.643661</v>
+      </c>
+      <c r="O10">
+        <v>0.9878806392739954</v>
+      </c>
+      <c r="P10">
+        <v>0.9832891464421584</v>
+      </c>
+      <c r="Q10">
+        <v>0.1608837765685</v>
+      </c>
+      <c r="R10">
+        <v>0.9653026594110002</v>
+      </c>
+      <c r="S10">
+        <v>0.0001393259788107679</v>
+      </c>
+      <c r="T10">
+        <v>0.0001594941806704884</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.07955966666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.238679</v>
+      </c>
+      <c r="I11">
+        <v>0.0004757833673503189</v>
+      </c>
+      <c r="J11">
+        <v>0.0005471989098746966</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.5</v>
+      </c>
+      <c r="M11">
+        <v>0.0191995</v>
+      </c>
+      <c r="N11">
+        <v>0.038399</v>
+      </c>
+      <c r="O11">
+        <v>0.002780311579676609</v>
+      </c>
+      <c r="P11">
+        <v>0.002767389187860387</v>
+      </c>
+      <c r="Q11">
+        <v>0.001527505820166667</v>
+      </c>
+      <c r="R11">
+        <v>0.009165034921000001</v>
+      </c>
+      <c r="S11">
+        <v>1.322826005661622E-06</v>
+      </c>
+      <c r="T11">
+        <v>1.514312346796226E-06</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.07955966666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.238679</v>
+      </c>
+      <c r="I12">
+        <v>0.0004757833673503189</v>
+      </c>
+      <c r="J12">
+        <v>0.0005471989098746966</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.06449100000000001</v>
+      </c>
+      <c r="N12">
+        <v>0.193473</v>
+      </c>
+      <c r="O12">
+        <v>0.009339049146327988</v>
+      </c>
+      <c r="P12">
+        <v>0.01394346436998132</v>
+      </c>
+      <c r="Q12">
+        <v>0.005130882463000001</v>
+      </c>
+      <c r="R12">
+        <v>0.046177942167</v>
+      </c>
+      <c r="S12">
+        <v>4.443364250690051E-06</v>
+      </c>
+      <c r="T12">
+        <v>7.629848503130451E-06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.07955966666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.238679</v>
+      </c>
+      <c r="I13">
+        <v>0.0004757833673503189</v>
+      </c>
+      <c r="J13">
+        <v>0.0005471989098746966</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>6.821830500000001</v>
+      </c>
+      <c r="N13">
+        <v>13.643661</v>
+      </c>
+      <c r="O13">
+        <v>0.9878806392739954</v>
+      </c>
+      <c r="P13">
+        <v>0.9832891464421584</v>
+      </c>
+      <c r="Q13">
+        <v>0.5427425606365001</v>
+      </c>
+      <c r="R13">
+        <v>3.256455363819001</v>
+      </c>
+      <c r="S13">
+        <v>0.0004700171770939672</v>
+      </c>
+      <c r="T13">
+        <v>0.0005380547490247699</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>8.606016</v>
+      </c>
+      <c r="H14">
+        <v>25.818048</v>
+      </c>
+      <c r="I14">
+        <v>0.05146576705890407</v>
+      </c>
+      <c r="J14">
+        <v>0.05919082835395066</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.5</v>
+      </c>
+      <c r="M14">
+        <v>0.0191995</v>
+      </c>
+      <c r="N14">
+        <v>0.038399</v>
+      </c>
+      <c r="O14">
+        <v>0.002780311579676609</v>
+      </c>
+      <c r="P14">
+        <v>0.002767389187860387</v>
+      </c>
+      <c r="Q14">
+        <v>0.165231204192</v>
+      </c>
+      <c r="R14">
+        <v>0.9913872251520001</v>
+      </c>
+      <c r="S14">
+        <v>0.00014309086811081</v>
+      </c>
+      <c r="T14">
+        <v>0.0001638040584072231</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>8.606016</v>
+      </c>
+      <c r="H15">
+        <v>25.818048</v>
+      </c>
+      <c r="I15">
+        <v>0.05146576705890407</v>
+      </c>
+      <c r="J15">
+        <v>0.05919082835395066</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.06449100000000001</v>
+      </c>
+      <c r="N15">
+        <v>0.193473</v>
+      </c>
+      <c r="O15">
+        <v>0.009339049146327988</v>
+      </c>
+      <c r="P15">
+        <v>0.01394346436998132</v>
+      </c>
+      <c r="Q15">
+        <v>0.5550105778560001</v>
+      </c>
+      <c r="R15">
+        <v>4.995095200704</v>
+      </c>
+      <c r="S15">
+        <v>0.0004806413279165731</v>
+      </c>
+      <c r="T15">
+        <v>0.0008253252061829911</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>50.1078003443079</v>
-      </c>
-      <c r="H5">
-        <v>50.1078003443079</v>
-      </c>
-      <c r="I5">
-        <v>0.3301575742066237</v>
-      </c>
-      <c r="J5">
-        <v>0.3301575742066237</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>5.4690541859018</v>
-      </c>
-      <c r="N5">
-        <v>5.4690541859018</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>274.0422752193687</v>
-      </c>
-      <c r="R5">
-        <v>274.0422752193687</v>
-      </c>
-      <c r="S5">
-        <v>0.3301575742066237</v>
-      </c>
-      <c r="T5">
-        <v>0.3301575742066237</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>8.606016</v>
+      </c>
+      <c r="H16">
+        <v>25.818048</v>
+      </c>
+      <c r="I16">
+        <v>0.05146576705890407</v>
+      </c>
+      <c r="J16">
+        <v>0.05919082835395066</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>6.821830500000001</v>
+      </c>
+      <c r="N16">
+        <v>13.643661</v>
+      </c>
+      <c r="O16">
+        <v>0.9878806392739954</v>
+      </c>
+      <c r="P16">
+        <v>0.9832891464421584</v>
+      </c>
+      <c r="Q16">
+        <v>58.70878243228801</v>
+      </c>
+      <c r="R16">
+        <v>352.2526945937281</v>
+      </c>
+      <c r="S16">
+        <v>0.05084203486287669</v>
+      </c>
+      <c r="T16">
+        <v>0.05820169908936045</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>53.592882</v>
+      </c>
+      <c r="H17">
+        <v>107.185764</v>
+      </c>
+      <c r="I17">
+        <v>0.3204965899467689</v>
+      </c>
+      <c r="J17">
+        <v>0.2457356248973998</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.5</v>
+      </c>
+      <c r="M17">
+        <v>0.0191995</v>
+      </c>
+      <c r="N17">
+        <v>0.038399</v>
+      </c>
+      <c r="O17">
+        <v>0.002780311579676609</v>
+      </c>
+      <c r="P17">
+        <v>0.002767389187860387</v>
+      </c>
+      <c r="Q17">
+        <v>1.028956537959</v>
+      </c>
+      <c r="R17">
+        <v>4.115826151836</v>
+      </c>
+      <c r="S17">
+        <v>0.0008910803802758677</v>
+      </c>
+      <c r="T17">
+        <v>0.00068004611141318</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>53.592882</v>
+      </c>
+      <c r="H18">
+        <v>107.185764</v>
+      </c>
+      <c r="I18">
+        <v>0.3204965899467689</v>
+      </c>
+      <c r="J18">
+        <v>0.2457356248973998</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.06449100000000001</v>
+      </c>
+      <c r="N18">
+        <v>0.193473</v>
+      </c>
+      <c r="O18">
+        <v>0.009339049146327988</v>
+      </c>
+      <c r="P18">
+        <v>0.01394346436998132</v>
+      </c>
+      <c r="Q18">
+        <v>3.456258553062</v>
+      </c>
+      <c r="R18">
+        <v>20.737551318372</v>
+      </c>
+      <c r="S18">
+        <v>0.002993133404743404</v>
+      </c>
+      <c r="T18">
+        <v>0.003426405930191989</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>53.592882</v>
+      </c>
+      <c r="H19">
+        <v>107.185764</v>
+      </c>
+      <c r="I19">
+        <v>0.3204965899467689</v>
+      </c>
+      <c r="J19">
+        <v>0.2457356248973998</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>6.821830500000001</v>
+      </c>
+      <c r="N19">
+        <v>13.643661</v>
+      </c>
+      <c r="O19">
+        <v>0.9878806392739954</v>
+      </c>
+      <c r="P19">
+        <v>0.9832891464421584</v>
+      </c>
+      <c r="Q19">
+        <v>365.601557010501</v>
+      </c>
+      <c r="R19">
+        <v>1462.406228042004</v>
+      </c>
+      <c r="S19">
+        <v>0.3166123761617496</v>
+      </c>
+      <c r="T19">
+        <v>0.2416291728557947</v>
       </c>
     </row>
   </sheetData>
